--- a/xlsx/詹姆斯敦 (弗吉尼亚州)_intext.xlsx
+++ b/xlsx/詹姆斯敦 (弗吉尼亚州)_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
   </si>
   <si>
-    <t>維吉尼亞半島</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_詹姆斯敦 (弗吉尼亚州)</t>
+    <t>维吉尼亚半岛</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_詹姆斯敦 (弗吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E5%B8%82%E7%B8%A3</t>
   </si>
   <si>
-    <t>詹姆斯市縣</t>
+    <t>詹姆斯市县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E4%B8%80%E4%B8%96_(%E8%8B%B1%E6%A0%BC%E8%98%AD)</t>
   </si>
   <si>
-    <t>詹姆斯一世 (英格蘭)</t>
+    <t>詹姆斯一世 (英格兰)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%E6%B2%B3</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>維吉尼亞公司</t>
+    <t>维吉尼亚公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%AD%90</t>
   </si>
   <si>
-    <t>麥子</t>
+    <t>麦子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E6%B5%B7%E5%A4%96%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英國海外領地</t>
+    <t>英国海外领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E6%96%AF%E5%A0%A1</t>
